--- a/data/smi_2019_v4.xlsx
+++ b/data/smi_2019_v4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1224">
   <si>
     <t>control_number</t>
   </si>
@@ -719,37 +719,19 @@
     <t>sarcoma</t>
   </si>
   <si>
-    <t>ovay</t>
-  </si>
-  <si>
     <t>lymphoma</t>
   </si>
   <si>
-    <t>synergy_PD1</t>
-  </si>
-  <si>
-    <t>target discovery</t>
-  </si>
-  <si>
-    <t>synergy_radio</t>
-  </si>
-  <si>
-    <t>target-tumor interaction</t>
-  </si>
-  <si>
-    <t>synergy_Immuno</t>
-  </si>
-  <si>
-    <t>synergy_PD1_radio</t>
+    <t>synergy</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>target-tumor</t>
   </si>
   <si>
     <t>phase 1</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>synergy_epi</t>
   </si>
   <si>
     <t>pharma</t>
@@ -3831,55 +3813,55 @@
         <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" t="s">
         <v>248</v>
       </c>
-      <c r="H2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I2" t="s">
-        <v>254</v>
-      </c>
       <c r="J2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K2" t="e">
         <v>#N/A</v>
       </c>
       <c r="L2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M2" t="e">
         <v>#N/A</v>
       </c>
       <c r="N2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="O2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="P2" t="s">
         <v>151</v>
       </c>
       <c r="Q2" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="R2" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="S2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="T2" t="e">
         <v>#N/A</v>
       </c>
       <c r="U2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3">
@@ -3896,55 +3878,55 @@
         <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M3" t="e">
         <v>#N/A</v>
       </c>
       <c r="N3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="O3" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="P3" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="Q3" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="R3" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="S3" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="T3" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="U3" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="4">
@@ -3964,52 +3946,52 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K4" t="e">
         <v>#N/A</v>
       </c>
       <c r="L4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M4" t="e">
         <v>#N/A</v>
       </c>
       <c r="N4" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="O4" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="P4" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="Q4" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="R4" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="S4" t="e">
         <v>#N/A</v>
       </c>
       <c r="T4" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="U4" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5">
@@ -4029,52 +4011,52 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" t="s">
         <v>251</v>
       </c>
-      <c r="I5" t="s">
-        <v>257</v>
-      </c>
       <c r="J5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K5" t="e">
         <v>#N/A</v>
       </c>
       <c r="L5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M5" t="e">
         <v>#N/A</v>
       </c>
       <c r="N5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="O5" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="P5" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="Q5" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="R5" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="S5" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="T5" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U5" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="6">
@@ -4094,52 +4076,52 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K6" t="e">
         <v>#N/A</v>
       </c>
       <c r="L6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M6" t="e">
         <v>#N/A</v>
       </c>
       <c r="N6" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="O6" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="P6" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="Q6" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="R6" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="S6" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="T6" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="U6" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7">
@@ -4156,55 +4138,55 @@
         <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
       </c>
       <c r="L7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M7" t="e">
         <v>#N/A</v>
       </c>
       <c r="N7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="O7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="P7" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="Q7" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="R7" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="S7" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="T7" t="e">
         <v>#N/A</v>
       </c>
       <c r="U7" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8">
@@ -4224,52 +4206,52 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K8" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="L8" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M8" t="e">
         <v>#N/A</v>
       </c>
       <c r="N8" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="O8" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="P8" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="Q8" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="R8" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="S8" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="T8" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U8" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9">
@@ -4286,55 +4268,55 @@
         <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K9" t="e">
         <v>#N/A</v>
       </c>
       <c r="L9" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M9" t="e">
         <v>#N/A</v>
       </c>
       <c r="N9" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="O9" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="P9" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="Q9" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="R9" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="S9" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="T9" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="U9" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="10">
@@ -4354,52 +4336,52 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K10" t="e">
         <v>#N/A</v>
       </c>
       <c r="L10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M10" t="e">
         <v>#N/A</v>
       </c>
       <c r="N10" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="O10" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="P10" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="Q10" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="R10" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="S10" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="T10" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="U10" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="11">
@@ -4419,52 +4401,52 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K11" t="e">
         <v>#N/A</v>
       </c>
       <c r="L11" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="M11" t="e">
         <v>#N/A</v>
       </c>
       <c r="N11" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="O11" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="P11" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="Q11" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="R11" t="s">
         <v>158</v>
       </c>
       <c r="S11" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="T11" t="e">
         <v>#N/A</v>
       </c>
       <c r="U11" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="12">
@@ -4484,52 +4466,52 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K12" t="e">
         <v>#N/A</v>
       </c>
       <c r="L12" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M12" t="e">
         <v>#N/A</v>
       </c>
       <c r="N12" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="O12" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="P12" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="Q12" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="R12" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="S12" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="T12" t="e">
         <v>#N/A</v>
       </c>
       <c r="U12" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="13">
@@ -4549,52 +4531,52 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J13" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K13" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L13" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M13" t="e">
         <v>#N/A</v>
       </c>
       <c r="N13" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="O13" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="P13" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q13" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="R13" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="S13" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="T13" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U13" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="14">
@@ -4611,55 +4593,55 @@
         <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J14" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K14" t="e">
         <v>#N/A</v>
       </c>
       <c r="L14" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="M14" t="e">
         <v>#N/A</v>
       </c>
       <c r="N14" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="O14" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="P14" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="Q14" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="R14" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="S14" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="T14" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="U14" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="15">
@@ -4679,52 +4661,52 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H15" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J15" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K15" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L15" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M15" t="e">
         <v>#N/A</v>
       </c>
       <c r="N15" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="O15" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="P15" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="Q15" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="R15" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="S15" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="T15" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="U15" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="16">
@@ -4741,55 +4723,55 @@
         <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J16" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K16" t="e">
         <v>#N/A</v>
       </c>
       <c r="L16" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M16" t="e">
         <v>#N/A</v>
       </c>
       <c r="N16" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="O16" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="P16" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="Q16" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="R16" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="S16" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="T16" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="U16" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="17">
@@ -4806,55 +4788,55 @@
         <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H17" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I17" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J17" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K17" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L17" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M17" t="e">
         <v>#N/A</v>
       </c>
       <c r="N17" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="O17" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="P17" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="Q17" t="s">
         <v>162</v>
       </c>
       <c r="R17" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="S17" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="T17" t="e">
         <v>#N/A</v>
       </c>
       <c r="U17" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="18">
@@ -4871,55 +4853,55 @@
         <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" t="s">
         <v>246</v>
       </c>
-      <c r="G18" t="s">
-        <v>248</v>
-      </c>
-      <c r="H18" t="s">
-        <v>252</v>
-      </c>
       <c r="I18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J18" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K18" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L18" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M18" t="e">
         <v>#N/A</v>
       </c>
       <c r="N18" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="O18" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="P18" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="Q18" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="R18" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="S18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T18" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="U18" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="19">
@@ -4936,43 +4918,43 @@
         <v>220</v>
       </c>
       <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" t="s">
         <v>242</v>
       </c>
-      <c r="F19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" t="s">
-        <v>248</v>
-      </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K19" t="e">
         <v>#N/A</v>
       </c>
       <c r="L19" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M19" t="e">
         <v>#N/A</v>
       </c>
       <c r="N19" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="O19" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="P19" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="Q19" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="R19" t="s">
         <v>162</v>
@@ -4981,10 +4963,10 @@
         <v>#N/A</v>
       </c>
       <c r="T19" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U19" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="20">
@@ -5001,55 +4983,55 @@
         <v>220</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G20" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K20" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L20" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M20" t="e">
         <v>#N/A</v>
       </c>
       <c r="N20" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="O20" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="P20" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="Q20" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="R20" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="S20" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="T20" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U20" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="21">
@@ -5066,55 +5048,55 @@
         <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J21" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K21" t="e">
         <v>#N/A</v>
       </c>
       <c r="L21" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M21" t="e">
         <v>#N/A</v>
       </c>
       <c r="N21" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="O21" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="P21" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="Q21" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="R21" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="S21" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="T21" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="U21" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="22">
@@ -5131,55 +5113,55 @@
         <v>225</v>
       </c>
       <c r="E22" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F22" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J22" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K22" t="e">
         <v>#N/A</v>
       </c>
       <c r="L22" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M22" t="e">
         <v>#N/A</v>
       </c>
       <c r="N22" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="O22" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="P22" t="s">
         <v>156</v>
       </c>
       <c r="Q22" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="R22" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="S22" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
       </c>
       <c r="U22" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="23">
@@ -5196,55 +5178,55 @@
         <v>225</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H23" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I23" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J23" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K23" t="e">
         <v>#N/A</v>
       </c>
       <c r="L23" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M23" t="e">
         <v>#N/A</v>
       </c>
       <c r="N23" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="O23" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="P23" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="Q23" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="R23" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="S23" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="T23" t="e">
         <v>#N/A</v>
       </c>
       <c r="U23" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="24">
@@ -5261,55 +5243,55 @@
         <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>243</v>
+      </c>
+      <c r="H24" t="s">
         <v>246</v>
       </c>
-      <c r="G24" t="s">
-        <v>249</v>
-      </c>
-      <c r="H24" t="s">
-        <v>252</v>
-      </c>
       <c r="I24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J24" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K24" t="e">
         <v>#N/A</v>
       </c>
       <c r="L24" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M24" t="e">
         <v>#N/A</v>
       </c>
       <c r="N24" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="O24" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="P24" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="Q24" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="R24" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="S24" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="T24" t="e">
         <v>#N/A</v>
       </c>
       <c r="U24" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="25">
@@ -5326,55 +5308,55 @@
         <v>226</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J25" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K25" t="e">
         <v>#N/A</v>
       </c>
       <c r="L25" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M25" t="e">
         <v>#N/A</v>
       </c>
       <c r="N25" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="O25" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="P25" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="Q25" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="R25" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="S25" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="T25" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="U25" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="26">
@@ -5391,43 +5373,43 @@
         <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K26" t="e">
         <v>#N/A</v>
       </c>
       <c r="L26" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="M26" t="e">
         <v>#N/A</v>
       </c>
       <c r="N26" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="O26" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="P26" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="Q26" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="R26" t="s">
         <v>153</v>
@@ -5439,7 +5421,7 @@
         <v>#N/A</v>
       </c>
       <c r="U26" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="27">
@@ -5456,55 +5438,55 @@
         <v>227</v>
       </c>
       <c r="E27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" t="s">
         <v>240</v>
       </c>
-      <c r="F27" t="s">
-        <v>246</v>
-      </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J27" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K27" t="e">
         <v>#N/A</v>
       </c>
       <c r="L27" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M27" t="e">
         <v>#N/A</v>
       </c>
       <c r="N27" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="O27" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="P27" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="Q27" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="R27" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="S27" t="e">
         <v>#N/A</v>
       </c>
       <c r="T27" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="U27" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="28">
@@ -5521,55 +5503,55 @@
         <v>228</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I28" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K28" t="e">
         <v>#N/A</v>
       </c>
       <c r="L28" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M28" t="e">
         <v>#N/A</v>
       </c>
       <c r="N28" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="O28" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="P28" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="Q28" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="R28" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="S28" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="T28" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="U28" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="29">
@@ -5589,52 +5571,52 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K29" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L29" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="M29" t="e">
         <v>#N/A</v>
       </c>
       <c r="N29" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="O29" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="P29" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q29" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="R29" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="S29" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="T29" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U29" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="30">
@@ -5651,55 +5633,55 @@
         <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K30" t="e">
         <v>#N/A</v>
       </c>
       <c r="L30" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M30" t="e">
         <v>#N/A</v>
       </c>
       <c r="N30" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="O30" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="P30" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="Q30" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="R30" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="S30" t="e">
         <v>#N/A</v>
       </c>
       <c r="T30" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U30" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="31">
@@ -5716,55 +5698,55 @@
         <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G31" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K31" t="e">
         <v>#N/A</v>
       </c>
       <c r="L31" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M31" t="e">
         <v>#N/A</v>
       </c>
       <c r="N31" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="O31" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="P31" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="Q31" t="s">
         <v>171</v>
       </c>
       <c r="R31" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="S31" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="T31" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U31" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="32">
@@ -5781,55 +5763,55 @@
         <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K32" t="e">
         <v>#N/A</v>
       </c>
       <c r="L32" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M32" t="e">
         <v>#N/A</v>
       </c>
       <c r="N32" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="O32" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="P32" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="Q32" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="R32" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="S32" t="e">
         <v>#N/A</v>
       </c>
       <c r="T32" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="U32" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="33">
@@ -5846,55 +5828,55 @@
         <v>231</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K33" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L33" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M33" t="e">
         <v>#N/A</v>
       </c>
       <c r="N33" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="O33" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="P33" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="Q33" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="R33" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="S33" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="T33" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="U33" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="34">
@@ -5911,55 +5893,55 @@
         <v>225</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H34" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K34" t="e">
         <v>#N/A</v>
       </c>
       <c r="L34" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M34" t="e">
         <v>#N/A</v>
       </c>
       <c r="N34" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="O34" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="P34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="Q34" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R34" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="S34" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
       </c>
       <c r="U34" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="35">
@@ -5976,55 +5958,55 @@
         <v>225</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K35" t="e">
         <v>#N/A</v>
       </c>
       <c r="L35" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="M35" t="e">
         <v>#N/A</v>
       </c>
       <c r="N35" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="O35" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="P35" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="Q35" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="R35" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="S35" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="T35" t="e">
         <v>#N/A</v>
       </c>
       <c r="U35" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="36">
@@ -6041,55 +6023,55 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" t="s">
+        <v>243</v>
+      </c>
+      <c r="H36" t="s">
         <v>246</v>
       </c>
-      <c r="G36" t="s">
-        <v>249</v>
-      </c>
-      <c r="H36" t="s">
-        <v>252</v>
-      </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K36" t="e">
         <v>#N/A</v>
       </c>
       <c r="L36" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M36" t="e">
         <v>#N/A</v>
       </c>
       <c r="N36" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="O36" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="P36" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="Q36" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="R36" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="S36" t="e">
         <v>#N/A</v>
       </c>
       <c r="T36" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="U36" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="37">
@@ -6106,55 +6088,55 @@
         <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" t="s">
         <v>246</v>
       </c>
-      <c r="G37" t="s">
-        <v>249</v>
-      </c>
-      <c r="H37" t="s">
-        <v>252</v>
-      </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J37" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K37" t="e">
         <v>#N/A</v>
       </c>
       <c r="L37" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M37" t="e">
         <v>#N/A</v>
       </c>
       <c r="N37" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="O37" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="P37" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="Q37" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="R37" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="S37" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="T37" t="e">
         <v>#N/A</v>
       </c>
       <c r="U37" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="38">
@@ -6171,55 +6153,55 @@
         <v>217</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G38" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I38" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J38" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K38" t="e">
         <v>#N/A</v>
       </c>
       <c r="L38" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M38" t="e">
         <v>#N/A</v>
       </c>
       <c r="N38" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="O38" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="P38" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="Q38" t="s">
         <v>162</v>
       </c>
       <c r="R38" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="S38" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="T38" t="e">
         <v>#N/A</v>
       </c>
       <c r="U38" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="39">
@@ -6239,52 +6221,52 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I39" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J39" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K39" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="L39" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M39" t="e">
         <v>#N/A</v>
       </c>
       <c r="N39" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="O39" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="P39" t="s">
         <v>176</v>
       </c>
       <c r="Q39" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="R39" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="S39" t="s">
         <v>189</v>
       </c>
       <c r="T39" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U39" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="40">
@@ -6301,55 +6283,55 @@
         <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H40" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I40" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J40" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K40" t="e">
         <v>#N/A</v>
       </c>
       <c r="L40" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M40" t="e">
         <v>#N/A</v>
       </c>
       <c r="N40" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="O40" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="P40" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="Q40" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="R40" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="S40" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="T40" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="U40" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="41">
@@ -6366,55 +6348,55 @@
         <v>223</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H41" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J41" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K41" t="e">
         <v>#N/A</v>
       </c>
       <c r="L41" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M41" t="e">
         <v>#N/A</v>
       </c>
       <c r="N41" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="O41" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="P41" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="Q41" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="R41" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="S41" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="T41" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="U41" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="42">
@@ -6431,55 +6413,55 @@
         <v>222</v>
       </c>
       <c r="E42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F42" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H42" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I42" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J42" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K42" t="e">
         <v>#N/A</v>
       </c>
       <c r="L42" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M42" t="e">
         <v>#N/A</v>
       </c>
       <c r="N42" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="O42" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="P42" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="Q42" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="R42" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="S42" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="T42" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="U42" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="43">
@@ -6496,55 +6478,55 @@
         <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I43" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J43" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K43" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L43" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="M43" t="e">
         <v>#N/A</v>
       </c>
       <c r="N43" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="O43" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="P43" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="Q43" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="R43" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="S43" t="e">
         <v>#N/A</v>
       </c>
       <c r="T43" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="U43" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="44">
@@ -6561,55 +6543,55 @@
         <v>225</v>
       </c>
       <c r="E44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" t="s">
         <v>242</v>
       </c>
-      <c r="F44" t="s">
-        <v>246</v>
-      </c>
-      <c r="G44" t="s">
-        <v>248</v>
-      </c>
       <c r="H44" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I44" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J44" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K44" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="L44" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M44" t="e">
         <v>#N/A</v>
       </c>
       <c r="N44" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="O44" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="P44" t="s">
         <v>180</v>
       </c>
       <c r="Q44" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="R44" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="S44" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="T44" t="e">
         <v>#N/A</v>
       </c>
       <c r="U44" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="45">
@@ -6626,43 +6608,43 @@
         <v>223</v>
       </c>
       <c r="E45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F45" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H45" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I45" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J45" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K45" t="e">
         <v>#N/A</v>
       </c>
       <c r="L45" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M45" t="e">
         <v>#N/A</v>
       </c>
       <c r="N45" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="O45" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="P45" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="Q45" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="R45" t="e">
         <v>#N/A</v>
@@ -6671,10 +6653,10 @@
         <v>#N/A</v>
       </c>
       <c r="T45" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="U45" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="46">
@@ -6691,55 +6673,55 @@
         <v>225</v>
       </c>
       <c r="E46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F46" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I46" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J46" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K46" t="e">
         <v>#N/A</v>
       </c>
       <c r="L46" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M46" t="e">
         <v>#N/A</v>
       </c>
       <c r="N46" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="O46" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="P46" t="s">
         <v>151</v>
       </c>
       <c r="Q46" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R46" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="S46" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="T46" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="U46" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="47">
@@ -6756,55 +6738,55 @@
         <v>220</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F47" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G47" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H47" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I47" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J47" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K47" t="e">
         <v>#N/A</v>
       </c>
       <c r="L47" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M47" t="e">
         <v>#N/A</v>
       </c>
       <c r="N47" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="O47" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="P47" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="Q47" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="R47" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="S47" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="T47" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U47" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="48">
@@ -6821,55 +6803,55 @@
         <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I48" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K48" t="e">
         <v>#N/A</v>
       </c>
       <c r="L48" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M48" t="e">
         <v>#N/A</v>
       </c>
       <c r="N48" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="O48" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="P48" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="Q48" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="R48" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="S48" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="T48" t="e">
         <v>#N/A</v>
       </c>
       <c r="U48" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="49">
@@ -6889,52 +6871,52 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G49" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H49" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I49" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J49" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K49" t="e">
         <v>#N/A</v>
       </c>
       <c r="L49" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M49" t="e">
         <v>#N/A</v>
       </c>
       <c r="N49" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="O49" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="P49" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q49" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="R49" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="S49" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="T49" t="e">
         <v>#N/A</v>
       </c>
       <c r="U49" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="50">
@@ -6951,55 +6933,55 @@
         <v>233</v>
       </c>
       <c r="E50" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" t="s">
         <v>240</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" t="s">
         <v>246</v>
       </c>
-      <c r="G50" t="s">
-        <v>249</v>
-      </c>
-      <c r="H50" t="s">
-        <v>252</v>
-      </c>
       <c r="I50" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J50" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K50" t="e">
         <v>#N/A</v>
       </c>
       <c r="L50" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M50" t="e">
         <v>#N/A</v>
       </c>
       <c r="N50" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="O50" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="P50" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="Q50" t="s">
         <v>183</v>
       </c>
       <c r="R50" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="S50" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="T50" t="e">
         <v>#N/A</v>
       </c>
       <c r="U50" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="51">
@@ -7019,52 +7001,52 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I51" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J51" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K51" t="e">
         <v>#N/A</v>
       </c>
       <c r="L51" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M51" t="e">
         <v>#N/A</v>
       </c>
       <c r="N51" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="O51" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="P51" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="Q51" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="R51" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="S51" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="T51" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="U51" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="52">
@@ -7084,52 +7066,52 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G52" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H52" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I52" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J52" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K52" t="e">
         <v>#N/A</v>
       </c>
       <c r="L52" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M52" t="e">
         <v>#N/A</v>
       </c>
       <c r="N52" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="O52" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="P52" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="Q52" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="R52" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="S52" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="T52" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="U52" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="53">
@@ -7146,55 +7128,55 @@
         <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F53" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H53" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J53" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K53" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L53" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M53" t="e">
         <v>#N/A</v>
       </c>
       <c r="N53" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="O53" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="P53" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="Q53" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="R53" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="S53" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="T53" t="e">
         <v>#N/A</v>
       </c>
       <c r="U53" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="54">
@@ -7211,55 +7193,55 @@
         <v>217</v>
       </c>
       <c r="E54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F54" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G54" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="J54" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K54" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L54" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="M54" t="e">
         <v>#N/A</v>
       </c>
       <c r="N54" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="O54" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="P54" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="Q54" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="R54" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="S54" t="e">
         <v>#N/A</v>
       </c>
       <c r="T54" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="U54" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="55">
@@ -7276,55 +7258,55 @@
         <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F55" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G55" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H55" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I55" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="J55" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K55" t="e">
         <v>#N/A</v>
       </c>
       <c r="L55" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="M55" t="e">
         <v>#N/A</v>
       </c>
       <c r="N55" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="O55" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="P55" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="Q55" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="R55" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="S55" t="s">
         <v>187</v>
       </c>
       <c r="T55" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="U55" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="56">
@@ -7341,43 +7323,43 @@
         <v>225</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F56" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G56" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H56" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I56" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J56" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K56" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L56" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M56" t="e">
         <v>#N/A</v>
       </c>
       <c r="N56" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="O56" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="P56" t="s">
         <v>162</v>
       </c>
       <c r="Q56" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="R56" t="e">
         <v>#N/A</v>
@@ -7389,7 +7371,7 @@
         <v>#N/A</v>
       </c>
       <c r="U56" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="57">
@@ -7406,55 +7388,55 @@
         <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G57" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I57" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J57" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K57" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L57" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M57" t="e">
         <v>#N/A</v>
       </c>
       <c r="N57" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="O57" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="P57" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="Q57" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="R57" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="S57" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="T57" t="e">
         <v>#N/A</v>
       </c>
       <c r="U57" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="58">
@@ -7471,55 +7453,55 @@
         <v>228</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I58" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J58" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K58" t="e">
         <v>#N/A</v>
       </c>
       <c r="L58" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M58" t="e">
         <v>#N/A</v>
       </c>
       <c r="N58" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="O58" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="P58" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="Q58" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="R58" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="S58" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="T58" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="U58" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="59">
@@ -7536,55 +7518,55 @@
         <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G59" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H59" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I59" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J59" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K59" t="e">
         <v>#N/A</v>
       </c>
       <c r="L59" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M59" t="e">
         <v>#N/A</v>
       </c>
       <c r="N59" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="O59" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="P59" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="Q59" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R59" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="S59" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="T59" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="U59" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="60">
@@ -7601,55 +7583,55 @@
         <v>220</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F60" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H60" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J60" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K60" t="e">
         <v>#N/A</v>
       </c>
       <c r="L60" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M60" t="e">
         <v>#N/A</v>
       </c>
       <c r="N60" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="O60" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="P60" t="s">
         <v>189</v>
       </c>
       <c r="Q60" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="R60" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="S60" t="e">
         <v>#N/A</v>
       </c>
       <c r="T60" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U60" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="61">
@@ -7666,55 +7648,55 @@
         <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61" t="s">
+        <v>243</v>
+      </c>
+      <c r="H61" t="s">
         <v>246</v>
       </c>
-      <c r="G61" t="s">
-        <v>249</v>
-      </c>
-      <c r="H61" t="s">
-        <v>252</v>
-      </c>
       <c r="I61" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J61" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K61" t="e">
         <v>#N/A</v>
       </c>
       <c r="L61" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="M61" t="e">
         <v>#N/A</v>
       </c>
       <c r="N61" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="O61" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="P61" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="Q61" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="R61" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="S61" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="T61" t="e">
         <v>#N/A</v>
       </c>
       <c r="U61" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="62">
@@ -7734,52 +7716,52 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H62" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J62" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K62" t="e">
         <v>#N/A</v>
       </c>
       <c r="L62" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M62" t="e">
         <v>#N/A</v>
       </c>
       <c r="N62" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="O62" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="P62" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="Q62" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="R62" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="S62" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="T62" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="U62" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="63">
@@ -7796,55 +7778,55 @@
         <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F63" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I63" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J63" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K63" t="e">
         <v>#N/A</v>
       </c>
       <c r="L63" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M63" t="e">
         <v>#N/A</v>
       </c>
       <c r="N63" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="O63" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="P63" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="Q63" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R63" t="s">
         <v>162</v>
       </c>
       <c r="S63" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="T63" t="e">
         <v>#N/A</v>
       </c>
       <c r="U63" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="64">
@@ -7861,55 +7843,55 @@
         <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G64" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H64" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I64" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="J64" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K64" t="e">
         <v>#N/A</v>
       </c>
       <c r="L64" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="M64" t="e">
         <v>#N/A</v>
       </c>
       <c r="N64" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="O64" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="P64" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="Q64" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="R64" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="S64" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="T64" t="e">
         <v>#N/A</v>
       </c>
       <c r="U64" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="65">
@@ -7929,52 +7911,52 @@
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G65" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I65" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J65" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K65" t="e">
         <v>#N/A</v>
       </c>
       <c r="L65" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M65" t="e">
         <v>#N/A</v>
       </c>
       <c r="N65" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="O65" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="P65" t="s">
         <v>156</v>
       </c>
       <c r="Q65" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="R65" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="S65" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T65" t="e">
         <v>#N/A</v>
       </c>
       <c r="U65" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="66">
@@ -7994,52 +7976,52 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G66" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I66" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="J66" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K66" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L66" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="M66" t="e">
         <v>#N/A</v>
       </c>
       <c r="N66" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="O66" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="P66" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="Q66" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="R66" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="S66" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="T66" t="e">
         <v>#N/A</v>
       </c>
       <c r="U66" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="67">
@@ -8056,55 +8038,55 @@
         <v>225</v>
       </c>
       <c r="E67" t="s">
+        <v>239</v>
+      </c>
+      <c r="F67" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" t="s">
         <v>243</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
         <v>247</v>
       </c>
-      <c r="G67" t="s">
-        <v>249</v>
-      </c>
-      <c r="H67" t="s">
-        <v>253</v>
-      </c>
       <c r="I67" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J67" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K67" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L67" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M67" t="e">
         <v>#N/A</v>
       </c>
       <c r="N67" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="O67" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="P67" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="Q67" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="R67" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="S67" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="T67" t="e">
         <v>#N/A</v>
       </c>
       <c r="U67" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="68">
@@ -8121,55 +8103,55 @@
         <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F68" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G68" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I68" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J68" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K68" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L68" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M68" t="e">
         <v>#N/A</v>
       </c>
       <c r="N68" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="O68" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="P68" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q68" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="R68" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="S68" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="T68" t="e">
         <v>#N/A</v>
       </c>
       <c r="U68" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="69">
@@ -8186,55 +8168,55 @@
         <v>219</v>
       </c>
       <c r="E69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F69" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I69" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J69" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="K69" t="e">
         <v>#N/A</v>
       </c>
       <c r="L69" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="M69" t="e">
         <v>#N/A</v>
       </c>
       <c r="N69" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="O69" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="P69" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="Q69" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="R69" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="S69" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="T69" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="U69" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="70">
@@ -8251,55 +8233,55 @@
         <v>220</v>
       </c>
       <c r="E70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F70" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I70" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J70" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K70" t="e">
         <v>#N/A</v>
       </c>
       <c r="L70" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="M70" t="e">
         <v>#N/A</v>
       </c>
       <c r="N70" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="O70" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="P70" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="Q70" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="R70" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="S70" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="T70" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U70" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="71">
@@ -8316,55 +8298,55 @@
         <v>223</v>
       </c>
       <c r="E71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F71" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I71" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J71" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K71" t="e">
         <v>#N/A</v>
       </c>
       <c r="L71" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M71" t="e">
         <v>#N/A</v>
       </c>
       <c r="N71" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="O71" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="P71" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="Q71" t="s">
         <v>195</v>
       </c>
       <c r="R71" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="S71" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="T71" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="U71" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="72">
@@ -8384,52 +8366,52 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G72" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H72" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I72" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J72" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K72" t="e">
         <v>#N/A</v>
       </c>
       <c r="L72" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M72" t="e">
         <v>#N/A</v>
       </c>
       <c r="N72" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="O72" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="P72" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="Q72" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="R72" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="S72" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="T72" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="U72" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="73">
@@ -8446,55 +8428,55 @@
         <v>234</v>
       </c>
       <c r="E73" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" t="s">
         <v>240</v>
       </c>
-      <c r="F73" t="s">
-        <v>246</v>
-      </c>
       <c r="G73" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H73" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I73" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J73" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K73" t="e">
         <v>#N/A</v>
       </c>
       <c r="L73" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M73" t="e">
         <v>#N/A</v>
       </c>
       <c r="N73" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="O73" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="P73" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="Q73" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="R73" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="S73" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="T73" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="U73" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="74">
@@ -8511,55 +8493,55 @@
         <v>229</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F74" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" t="s">
+        <v>243</v>
+      </c>
+      <c r="H74" t="s">
         <v>246</v>
       </c>
-      <c r="G74" t="s">
-        <v>249</v>
-      </c>
-      <c r="H74" t="s">
-        <v>252</v>
-      </c>
       <c r="I74" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J74" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K74" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L74" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M74" t="e">
         <v>#N/A</v>
       </c>
       <c r="N74" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="O74" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="P74" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="Q74" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="R74" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="S74" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="T74" t="e">
         <v>#N/A</v>
       </c>
       <c r="U74" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="75">
@@ -8576,55 +8558,55 @@
         <v>229</v>
       </c>
       <c r="E75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F75" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I75" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J75" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K75" t="e">
         <v>#N/A</v>
       </c>
       <c r="L75" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M75" t="e">
         <v>#N/A</v>
       </c>
       <c r="N75" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="O75" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="P75" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="Q75" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="R75" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="S75" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="T75" t="e">
         <v>#N/A</v>
       </c>
       <c r="U75" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="76">
@@ -8638,58 +8620,58 @@
         <v>198</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F76" t="s">
+        <v>241</v>
+      </c>
+      <c r="G76" t="s">
+        <v>243</v>
+      </c>
+      <c r="H76" t="s">
         <v>247</v>
       </c>
-      <c r="G76" t="s">
-        <v>249</v>
-      </c>
-      <c r="H76" t="s">
-        <v>253</v>
-      </c>
       <c r="I76" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J76" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K76" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L76" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M76" t="e">
         <v>#N/A</v>
       </c>
       <c r="N76" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="O76" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="P76" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="Q76" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="R76" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="S76" t="e">
         <v>#N/A</v>
       </c>
       <c r="T76" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="U76" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="77">
@@ -8706,55 +8688,55 @@
         <v>217</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F77" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H77" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I77" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J77" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K77" t="e">
         <v>#N/A</v>
       </c>
       <c r="L77" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="M77" t="e">
         <v>#N/A</v>
       </c>
       <c r="N77" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="O77" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="P77" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Q77" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="R77" t="s">
         <v>152</v>
       </c>
       <c r="S77" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="T77" t="e">
         <v>#N/A</v>
       </c>
       <c r="U77" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="78">
@@ -8771,55 +8753,55 @@
         <v>219</v>
       </c>
       <c r="E78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F78" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H78" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I78" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J78" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K78" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L78" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="M78" t="e">
         <v>#N/A</v>
       </c>
       <c r="N78" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="O78" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="P78" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="Q78" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="R78" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="S78" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="T78" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="U78" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="79">
@@ -8836,46 +8818,46 @@
         <v>229</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F79" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I79" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J79" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K79" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="L79" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M79" t="e">
         <v>#N/A</v>
       </c>
       <c r="N79" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="O79" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="P79" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="Q79" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="R79" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="S79" t="e">
         <v>#N/A</v>
@@ -8884,7 +8866,7 @@
         <v>#N/A</v>
       </c>
       <c r="U79" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="80">
@@ -8904,52 +8886,52 @@
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G80" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I80" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J80" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K80" t="e">
         <v>#N/A</v>
       </c>
       <c r="L80" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="M80" t="e">
         <v>#N/A</v>
       </c>
       <c r="N80" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="O80" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="P80" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="Q80" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="R80" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="S80" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="T80" t="e">
         <v>#N/A</v>
       </c>
       <c r="U80" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="81">
@@ -8966,55 +8948,55 @@
         <v>225</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F81" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G81" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H81" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I81" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J81" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K81" t="e">
         <v>#N/A</v>
       </c>
       <c r="L81" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="M81" t="e">
         <v>#N/A</v>
       </c>
       <c r="N81" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="O81" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="P81" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="Q81" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="R81" t="s">
         <v>152</v>
       </c>
       <c r="S81" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="T81" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="U81" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="82">
@@ -9031,43 +9013,43 @@
         <v>229</v>
       </c>
       <c r="E82" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F82" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I82" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J82" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K82" t="e">
         <v>#N/A</v>
       </c>
       <c r="L82" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="M82" t="e">
         <v>#N/A</v>
       </c>
       <c r="N82" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="O82" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="P82" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="Q82" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="R82" t="e">
         <v>#N/A</v>
@@ -9076,10 +9058,10 @@
         <v>#N/A</v>
       </c>
       <c r="T82" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U82" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="83">
@@ -9096,55 +9078,55 @@
         <v>217</v>
       </c>
       <c r="E83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F83" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H83" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I83" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J83" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K83" t="e">
         <v>#N/A</v>
       </c>
       <c r="L83" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M83" t="e">
         <v>#N/A</v>
       </c>
       <c r="N83" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="O83" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="P83" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="Q83" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="R83" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="S83" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="T83" t="e">
         <v>#N/A</v>
       </c>
       <c r="U83" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="84">
@@ -9161,43 +9143,43 @@
         <v>221</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I84" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J84" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K84" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L84" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="M84" t="e">
         <v>#N/A</v>
       </c>
       <c r="N84" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="O84" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="P84" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="Q84" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="R84" t="e">
         <v>#N/A</v>
@@ -9206,10 +9188,10 @@
         <v>#N/A</v>
       </c>
       <c r="T84" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="U84" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="85">
@@ -9226,55 +9208,55 @@
         <v>217</v>
       </c>
       <c r="E85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G85" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H85" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I85" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J85" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K85" t="e">
         <v>#N/A</v>
       </c>
       <c r="L85" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M85" t="e">
         <v>#N/A</v>
       </c>
       <c r="N85" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="O85" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="P85" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="Q85" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="R85" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="S85" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="T85" t="e">
         <v>#N/A</v>
       </c>
       <c r="U85" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="86">
@@ -9291,55 +9273,55 @@
         <v>225</v>
       </c>
       <c r="E86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F86" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G86" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H86" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I86" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J86" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K86" t="e">
         <v>#N/A</v>
       </c>
       <c r="L86" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="M86" t="e">
         <v>#N/A</v>
       </c>
       <c r="N86" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="O86" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="P86" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="Q86" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="R86" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="S86" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="T86" t="e">
         <v>#N/A</v>
       </c>
       <c r="U86" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="87">
@@ -9356,55 +9338,55 @@
         <v>229</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G87" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H87" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I87" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J87" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K87" t="e">
         <v>#N/A</v>
       </c>
       <c r="L87" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="M87" t="e">
         <v>#N/A</v>
       </c>
       <c r="N87" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="O87" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="P87" t="s">
         <v>153</v>
       </c>
       <c r="Q87" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="R87" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="S87" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="T87" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="U87" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="88">
@@ -9421,55 +9403,55 @@
         <v>220</v>
       </c>
       <c r="E88" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F88" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G88" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H88" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I88" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J88" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K88" t="e">
         <v>#N/A</v>
       </c>
       <c r="L88" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M88" t="e">
         <v>#N/A</v>
       </c>
       <c r="N88" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="O88" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="P88" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="Q88" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="R88" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="S88" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="T88" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U88" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="89">
@@ -9486,55 +9468,55 @@
         <v>223</v>
       </c>
       <c r="E89" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G89" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I89" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J89" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K89" t="e">
         <v>#N/A</v>
       </c>
       <c r="L89" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="M89" t="e">
         <v>#N/A</v>
       </c>
       <c r="N89" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="O89" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="P89" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="Q89" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="R89" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="S89" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="T89" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="U89" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="90">
@@ -9551,55 +9533,55 @@
         <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F90" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G90" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H90" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I90" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J90" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K90" t="e">
         <v>#N/A</v>
       </c>
       <c r="L90" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="M90" t="e">
         <v>#N/A</v>
       </c>
       <c r="N90" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="O90" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="P90" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="Q90" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="R90" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="S90" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="T90" t="e">
         <v>#N/A</v>
       </c>
       <c r="U90" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="91">
@@ -9619,52 +9601,52 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91" t="s">
+        <v>243</v>
+      </c>
+      <c r="H91" t="s">
         <v>246</v>
       </c>
-      <c r="G91" t="s">
-        <v>249</v>
-      </c>
-      <c r="H91" t="s">
-        <v>252</v>
-      </c>
       <c r="I91" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J91" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K91" t="e">
         <v>#N/A</v>
       </c>
       <c r="L91" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="M91" t="e">
         <v>#N/A</v>
       </c>
       <c r="N91" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="O91" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="P91" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="Q91" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R91" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="S91" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="T91" t="e">
         <v>#N/A</v>
       </c>
       <c r="U91" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="92">
@@ -9681,55 +9663,55 @@
         <v>230</v>
       </c>
       <c r="E92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F92" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G92" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H92" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I92" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J92" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K92" t="e">
         <v>#N/A</v>
       </c>
       <c r="L92" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M92" t="e">
         <v>#N/A</v>
       </c>
       <c r="N92" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="O92" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="P92" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="Q92" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="R92" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="S92" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="T92" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="U92" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="93">
@@ -9746,55 +9728,55 @@
         <v>225</v>
       </c>
       <c r="E93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F93" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G93" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H93" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I93" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J93" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K93" t="e">
         <v>#N/A</v>
       </c>
       <c r="L93" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="M93" t="e">
         <v>#N/A</v>
       </c>
       <c r="N93" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="O93" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="P93" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="Q93" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="R93" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="S93" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="T93" t="e">
         <v>#N/A</v>
       </c>
       <c r="U93" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="94">
@@ -9811,55 +9793,55 @@
         <v>218</v>
       </c>
       <c r="E94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F94" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G94" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H94" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I94" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J94" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K94" t="e">
         <v>#N/A</v>
       </c>
       <c r="L94" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="M94" t="e">
         <v>#N/A</v>
       </c>
       <c r="N94" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="O94" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="P94" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="Q94" t="s">
         <v>205</v>
       </c>
       <c r="R94" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="S94" t="e">
         <v>#N/A</v>
       </c>
       <c r="T94" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="U94" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="95">
@@ -9879,52 +9861,52 @@
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G95" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I95" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J95" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K95" t="e">
         <v>#N/A</v>
       </c>
       <c r="L95" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M95" t="e">
         <v>#N/A</v>
       </c>
       <c r="N95" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="O95" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="P95" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="Q95" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R95" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="S95" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="T95" t="e">
         <v>#N/A</v>
       </c>
       <c r="U95" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="96">
@@ -9941,55 +9923,55 @@
         <v>225</v>
       </c>
       <c r="E96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F96" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G96" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H96" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I96" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J96" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K96" t="e">
         <v>#N/A</v>
       </c>
       <c r="L96" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="M96" t="e">
         <v>#N/A</v>
       </c>
       <c r="N96" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O96" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="P96" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="Q96" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="R96" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="S96" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="T96" t="e">
         <v>#N/A</v>
       </c>
       <c r="U96" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="97">
@@ -10006,55 +9988,55 @@
         <v>229</v>
       </c>
       <c r="E97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F97" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G97" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H97" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I97" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J97" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K97" t="e">
         <v>#N/A</v>
       </c>
       <c r="L97" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="M97" t="e">
         <v>#N/A</v>
       </c>
       <c r="N97" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="O97" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="P97" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="Q97" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="R97" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="S97" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="T97" t="e">
         <v>#N/A</v>
       </c>
       <c r="U97" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="98">
@@ -10071,43 +10053,43 @@
         <v>224</v>
       </c>
       <c r="E98" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F98" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G98" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I98" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J98" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K98" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="L98" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="M98" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="N98" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="O98" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="P98" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="Q98" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="R98" t="e">
         <v>#N/A</v>
@@ -10116,10 +10098,10 @@
         <v>#N/A</v>
       </c>
       <c r="T98" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="U98" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="99">
@@ -10136,43 +10118,43 @@
         <v>224</v>
       </c>
       <c r="E99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F99" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G99" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H99" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I99" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J99" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K99" t="e">
         <v>#N/A</v>
       </c>
       <c r="L99" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="M99" t="e">
         <v>#N/A</v>
       </c>
       <c r="N99" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="O99" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="P99" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="Q99" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="R99" t="e">
         <v>#N/A</v>
@@ -10181,10 +10163,10 @@
         <v>#N/A</v>
       </c>
       <c r="T99" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="U99" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="100">
@@ -10201,55 +10183,55 @@
         <v>229</v>
       </c>
       <c r="E100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F100" t="s">
+        <v>240</v>
+      </c>
+      <c r="G100" t="s">
+        <v>243</v>
+      </c>
+      <c r="H100" t="s">
         <v>246</v>
       </c>
-      <c r="G100" t="s">
-        <v>249</v>
-      </c>
-      <c r="H100" t="s">
-        <v>252</v>
-      </c>
       <c r="I100" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J100" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K100" t="e">
         <v>#N/A</v>
       </c>
       <c r="L100" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M100" t="e">
         <v>#N/A</v>
       </c>
       <c r="N100" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="O100" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="P100" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="Q100" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R100" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="S100" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="T100" t="e">
         <v>#N/A</v>
       </c>
       <c r="U100" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="101">
@@ -10266,55 +10248,55 @@
         <v>229</v>
       </c>
       <c r="E101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F101" t="s">
+        <v>240</v>
+      </c>
+      <c r="G101" t="s">
+        <v>243</v>
+      </c>
+      <c r="H101" t="s">
         <v>246</v>
       </c>
-      <c r="G101" t="s">
-        <v>249</v>
-      </c>
-      <c r="H101" t="s">
-        <v>252</v>
-      </c>
       <c r="I101" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J101" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K101" t="e">
         <v>#N/A</v>
       </c>
       <c r="L101" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="M101" t="e">
         <v>#N/A</v>
       </c>
       <c r="N101" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="O101" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="P101" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="Q101" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="R101" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="S101" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T101" t="e">
         <v>#N/A</v>
       </c>
       <c r="U101" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="102">
@@ -10331,55 +10313,55 @@
         <v>226</v>
       </c>
       <c r="E102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F102" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G102" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H102" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I102" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J102" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K102" t="e">
         <v>#N/A</v>
       </c>
       <c r="L102" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="M102" t="e">
         <v>#N/A</v>
       </c>
       <c r="N102" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="O102" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="P102" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="Q102" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="R102" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="S102" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="T102" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="U102" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="103">
@@ -10396,40 +10378,40 @@
         <v>233</v>
       </c>
       <c r="E103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F103" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G103" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H103" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I103" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J103" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K103" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="L103" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M103" t="e">
         <v>#N/A</v>
       </c>
       <c r="N103" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="O103" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="P103" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="Q103" t="e">
         <v>#N/A</v>
@@ -10444,7 +10426,7 @@
         <v>#N/A</v>
       </c>
       <c r="U103" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="104">
@@ -10461,55 +10443,55 @@
         <v>229</v>
       </c>
       <c r="E104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F104" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G104" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H104" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I104" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J104" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K104" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L104" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="M104" t="e">
         <v>#N/A</v>
       </c>
       <c r="N104" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="O104" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="P104" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="Q104" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="R104" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="S104" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="T104" t="e">
         <v>#N/A</v>
       </c>
       <c r="U104" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="105">
@@ -10526,55 +10508,55 @@
         <v>224</v>
       </c>
       <c r="E105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F105" t="s">
+        <v>240</v>
+      </c>
+      <c r="G105" t="s">
+        <v>243</v>
+      </c>
+      <c r="H105" t="s">
         <v>246</v>
       </c>
-      <c r="G105" t="s">
-        <v>249</v>
-      </c>
-      <c r="H105" t="s">
-        <v>252</v>
-      </c>
       <c r="I105" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J105" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K105" t="e">
         <v>#N/A</v>
       </c>
       <c r="L105" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M105" t="e">
         <v>#N/A</v>
       </c>
       <c r="N105" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="O105" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="P105" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="Q105" t="s">
         <v>156</v>
       </c>
       <c r="R105" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="S105" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="T105" t="e">
         <v>#N/A</v>
       </c>
       <c r="U105" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="106">
@@ -10591,55 +10573,55 @@
         <v>233</v>
       </c>
       <c r="E106" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F106" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G106" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H106" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I106" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J106" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K106" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="L106" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="M106" t="e">
         <v>#N/A</v>
       </c>
       <c r="N106" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="O106" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="P106" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="Q106" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="R106" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="S106" t="e">
         <v>#N/A</v>
       </c>
       <c r="T106" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="U106" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="107">
@@ -10653,58 +10635,58 @@
         <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G107" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H107" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I107" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J107" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K107" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L107" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="M107" t="e">
         <v>#N/A</v>
       </c>
       <c r="N107" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="O107" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="P107" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="Q107" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="R107" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="S107" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="T107" t="e">
         <v>#N/A</v>
       </c>
       <c r="U107" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="108">
@@ -10721,55 +10703,55 @@
         <v>224</v>
       </c>
       <c r="E108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F108" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G108" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H108" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I108" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J108" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K108" t="e">
         <v>#N/A</v>
       </c>
       <c r="L108" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M108" t="e">
         <v>#N/A</v>
       </c>
       <c r="N108" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="O108" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="P108" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="Q108" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="R108" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="S108" t="s">
         <v>155</v>
       </c>
       <c r="T108" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="U108" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="109">
@@ -10786,55 +10768,55 @@
         <v>218</v>
       </c>
       <c r="E109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F109" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G109" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H109" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I109" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J109" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K109" t="e">
         <v>#N/A</v>
       </c>
       <c r="L109" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="M109" t="e">
         <v>#N/A</v>
       </c>
       <c r="N109" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="O109" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="P109" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="Q109" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="R109" t="s">
         <v>153</v>
       </c>
       <c r="S109" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="T109" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="U109" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="110">
@@ -10851,55 +10833,55 @@
         <v>220</v>
       </c>
       <c r="E110" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F110" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G110" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H110" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I110" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J110" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K110" t="e">
         <v>#N/A</v>
       </c>
       <c r="L110" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M110" t="e">
         <v>#N/A</v>
       </c>
       <c r="N110" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="O110" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="P110" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="Q110" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="R110" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="S110" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="T110" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U110" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="111">
@@ -10919,52 +10901,52 @@
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G111" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H111" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I111" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J111" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K111" t="e">
         <v>#N/A</v>
       </c>
       <c r="L111" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="M111" t="e">
         <v>#N/A</v>
       </c>
       <c r="N111" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="O111" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="P111" t="s">
         <v>205</v>
       </c>
       <c r="Q111" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="R111" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="S111" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="T111" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U111" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="112">
@@ -10981,55 +10963,55 @@
         <v>224</v>
       </c>
       <c r="E112" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F112" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G112" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H112" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I112" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J112" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K112" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L112" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="M112" t="e">
         <v>#N/A</v>
       </c>
       <c r="N112" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="O112" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="P112" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="Q112" t="s">
         <v>209</v>
       </c>
       <c r="R112" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="S112" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="T112" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="U112" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="113">
@@ -11046,55 +11028,55 @@
         <v>225</v>
       </c>
       <c r="E113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F113" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G113" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H113" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I113" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J113" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K113" t="e">
         <v>#N/A</v>
       </c>
       <c r="L113" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="M113" t="e">
         <v>#N/A</v>
       </c>
       <c r="N113" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="O113" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="P113" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="Q113" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="R113" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="S113" t="e">
         <v>#N/A</v>
       </c>
       <c r="T113" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="U113" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="114">
@@ -11111,55 +11093,55 @@
         <v>225</v>
       </c>
       <c r="E114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F114" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G114" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H114" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I114" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J114" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K114" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L114" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M114" t="e">
         <v>#N/A</v>
       </c>
       <c r="N114" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="O114" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="P114" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="Q114" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="R114" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="S114" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="T114" t="e">
         <v>#N/A</v>
       </c>
       <c r="U114" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="115">
@@ -11176,55 +11158,55 @@
         <v>220</v>
       </c>
       <c r="E115" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F115" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G115" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H115" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I115" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J115" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K115" t="e">
         <v>#N/A</v>
       </c>
       <c r="L115" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="M115" t="e">
         <v>#N/A</v>
       </c>
       <c r="N115" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="O115" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="P115" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="Q115" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="R115" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="S115" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="T115" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U115" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="116">
@@ -11241,55 +11223,55 @@
         <v>229</v>
       </c>
       <c r="E116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F116" t="s">
+        <v>240</v>
+      </c>
+      <c r="G116" t="s">
+        <v>243</v>
+      </c>
+      <c r="H116" t="s">
         <v>246</v>
       </c>
-      <c r="G116" t="s">
-        <v>249</v>
-      </c>
-      <c r="H116" t="s">
-        <v>252</v>
-      </c>
       <c r="I116" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J116" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K116" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L116" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="M116" t="e">
         <v>#N/A</v>
       </c>
       <c r="N116" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="O116" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="P116" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="Q116" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="R116" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="S116" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="T116" t="e">
         <v>#N/A</v>
       </c>
       <c r="U116" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="117">
@@ -11306,55 +11288,55 @@
         <v>219</v>
       </c>
       <c r="E117" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F117" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G117" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H117" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I117" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J117" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K117" t="e">
         <v>#N/A</v>
       </c>
       <c r="L117" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="M117" t="e">
         <v>#N/A</v>
       </c>
       <c r="N117" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="O117" t="s">
+        <v>875</v>
+      </c>
+      <c r="P117" t="s">
         <v>881</v>
       </c>
-      <c r="P117" t="s">
-        <v>887</v>
-      </c>
       <c r="Q117" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="R117" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="S117" t="e">
         <v>#N/A</v>
       </c>
       <c r="T117" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="U117" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="118">
@@ -11371,55 +11353,55 @@
         <v>228</v>
       </c>
       <c r="E118" t="s">
+        <v>236</v>
+      </c>
+      <c r="F118" t="s">
+        <v>241</v>
+      </c>
+      <c r="G118" t="s">
         <v>242</v>
       </c>
-      <c r="F118" t="s">
-        <v>247</v>
-      </c>
-      <c r="G118" t="s">
-        <v>248</v>
-      </c>
       <c r="H118" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I118" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J118" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K118" t="e">
         <v>#N/A</v>
       </c>
       <c r="L118" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="M118" t="e">
         <v>#N/A</v>
       </c>
       <c r="N118" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O118" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="P118" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="Q118" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="R118" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="S118" t="e">
         <v>#N/A</v>
       </c>
       <c r="T118" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="U118" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="119">
@@ -11436,55 +11418,55 @@
         <v>225</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F119" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G119" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H119" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I119" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J119" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K119" t="e">
         <v>#N/A</v>
       </c>
       <c r="L119" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="M119" t="e">
         <v>#N/A</v>
       </c>
       <c r="N119" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O119" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="P119" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="Q119" t="s">
         <v>212</v>
       </c>
       <c r="R119" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="S119" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="T119" t="e">
         <v>#N/A</v>
       </c>
       <c r="U119" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="120">
@@ -11501,40 +11483,40 @@
         <v>225</v>
       </c>
       <c r="E120" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F120" t="s">
+        <v>241</v>
+      </c>
+      <c r="G120" t="s">
+        <v>242</v>
+      </c>
+      <c r="H120" t="s">
         <v>247</v>
       </c>
-      <c r="G120" t="s">
-        <v>248</v>
-      </c>
-      <c r="H120" t="s">
-        <v>253</v>
-      </c>
       <c r="I120" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J120" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K120" t="e">
         <v>#N/A</v>
       </c>
       <c r="L120" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="M120" t="e">
         <v>#N/A</v>
       </c>
       <c r="N120" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="O120" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P120" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="Q120" t="e">
         <v>#N/A</v>
@@ -11546,10 +11528,10 @@
         <v>#N/A</v>
       </c>
       <c r="T120" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="U120" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="121">
@@ -11566,55 +11548,55 @@
         <v>217</v>
       </c>
       <c r="E121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
+        <v>240</v>
+      </c>
+      <c r="G121" t="s">
+        <v>243</v>
+      </c>
+      <c r="H121" t="s">
         <v>246</v>
       </c>
-      <c r="G121" t="s">
-        <v>249</v>
-      </c>
-      <c r="H121" t="s">
-        <v>252</v>
-      </c>
       <c r="I121" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J121" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K121" t="e">
         <v>#N/A</v>
       </c>
       <c r="L121" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M121" t="e">
         <v>#N/A</v>
       </c>
       <c r="N121" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="O121" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P121" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="Q121" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="R121" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="S121" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="T121" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="U121" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="122">
@@ -11631,55 +11613,55 @@
         <v>225</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
+        <v>241</v>
+      </c>
+      <c r="G122" t="s">
+        <v>242</v>
+      </c>
+      <c r="H122" t="s">
         <v>247</v>
       </c>
-      <c r="G122" t="s">
-        <v>248</v>
-      </c>
-      <c r="H122" t="s">
-        <v>253</v>
-      </c>
       <c r="I122" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J122" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K122" t="e">
         <v>#N/A</v>
       </c>
       <c r="L122" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="M122" t="e">
         <v>#N/A</v>
       </c>
       <c r="N122" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="O122" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P122" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="Q122" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="R122" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="S122" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="T122" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="U122" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="123">
@@ -11696,55 +11678,55 @@
         <v>225</v>
       </c>
       <c r="E123" t="s">
+        <v>239</v>
+      </c>
+      <c r="F123" t="s">
+        <v>240</v>
+      </c>
+      <c r="G123" t="s">
         <v>243</v>
       </c>
-      <c r="F123" t="s">
-        <v>246</v>
-      </c>
-      <c r="G123" t="s">
-        <v>249</v>
-      </c>
       <c r="H123" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I123" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J123" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K123" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L123" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="M123" t="e">
         <v>#N/A</v>
       </c>
       <c r="N123" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="O123" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P123" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="Q123" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="R123" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="S123" t="e">
         <v>#N/A</v>
       </c>
       <c r="T123" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="U123" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="124">
@@ -11761,55 +11743,55 @@
         <v>220</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
+        <v>241</v>
+      </c>
+      <c r="G124" t="s">
+        <v>242</v>
+      </c>
+      <c r="H124" t="s">
         <v>247</v>
       </c>
-      <c r="G124" t="s">
-        <v>248</v>
-      </c>
-      <c r="H124" t="s">
-        <v>253</v>
-      </c>
       <c r="I124" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="J124" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K124" t="e">
         <v>#N/A</v>
       </c>
       <c r="L124" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="M124" t="e">
         <v>#N/A</v>
       </c>
       <c r="N124" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="O124" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P124" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="Q124" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="R124" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="S124" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="T124" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U124" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="125">
@@ -11826,55 +11808,55 @@
         <v>225</v>
       </c>
       <c r="E125" t="s">
+        <v>239</v>
+      </c>
+      <c r="F125" t="s">
+        <v>241</v>
+      </c>
+      <c r="G125" t="s">
         <v>243</v>
       </c>
-      <c r="F125" t="s">
+      <c r="H125" t="s">
         <v>247</v>
       </c>
-      <c r="G125" t="s">
-        <v>249</v>
-      </c>
-      <c r="H125" t="s">
-        <v>253</v>
-      </c>
       <c r="I125" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J125" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K125" t="e">
         <v>#N/A</v>
       </c>
       <c r="L125" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="M125" t="e">
         <v>#N/A</v>
       </c>
       <c r="N125" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="O125" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P125" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="Q125" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="R125" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="S125" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="T125" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="U125" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="126">
@@ -11891,55 +11873,55 @@
         <v>220</v>
       </c>
       <c r="E126" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G126" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H126" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I126" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J126" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K126" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L126" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M126" t="e">
         <v>#N/A</v>
       </c>
       <c r="N126" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="O126" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P126" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="Q126" t="s">
+        <v>899</v>
+      </c>
+      <c r="R126" t="s">
+        <v>904</v>
+      </c>
+      <c r="S126" t="s">
         <v>905</v>
       </c>
-      <c r="R126" t="s">
-        <v>910</v>
-      </c>
-      <c r="S126" t="s">
-        <v>911</v>
-      </c>
       <c r="T126" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="U126" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="127">
@@ -11956,40 +11938,40 @@
         <v>224</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G127" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H127" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I127" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J127" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K127" t="e">
         <v>#N/A</v>
       </c>
       <c r="L127" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="M127" t="e">
         <v>#N/A</v>
       </c>
       <c r="N127" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="O127" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P127" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="Q127" t="e">
         <v>#N/A</v>
@@ -12001,10 +11983,10 @@
         <v>#N/A</v>
       </c>
       <c r="T127" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="U127" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="128">
@@ -12021,55 +12003,55 @@
         <v>225</v>
       </c>
       <c r="E128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G128" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H128" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I128" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J128" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K128" t="e">
         <v>#N/A</v>
       </c>
       <c r="L128" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="M128" t="e">
         <v>#N/A</v>
       </c>
       <c r="N128" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="O128" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P128" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="Q128" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="R128" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="S128" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="T128" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="U128" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="129">
@@ -12086,55 +12068,55 @@
         <v>225</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
+        <v>241</v>
+      </c>
+      <c r="G129" t="s">
+        <v>242</v>
+      </c>
+      <c r="H129" t="s">
         <v>247</v>
       </c>
-      <c r="G129" t="s">
-        <v>248</v>
-      </c>
-      <c r="H129" t="s">
-        <v>253</v>
-      </c>
       <c r="I129" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J129" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K129" t="e">
         <v>#N/A</v>
       </c>
       <c r="L129" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M129" t="e">
         <v>#N/A</v>
       </c>
       <c r="N129" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="O129" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P129" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="Q129" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="R129" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="S129" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="T129" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="U129" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="130">
@@ -12151,55 +12133,55 @@
         <v>229</v>
       </c>
       <c r="E130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G130" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H130" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I130" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="J130" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K130" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L130" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="M130" t="e">
         <v>#N/A</v>
       </c>
       <c r="N130" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="O130" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P130" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="Q130" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="R130" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="S130" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="T130" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="U130" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="131">
@@ -12216,55 +12198,55 @@
         <v>225</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
+        <v>241</v>
+      </c>
+      <c r="G131" t="s">
+        <v>242</v>
+      </c>
+      <c r="H131" t="s">
         <v>247</v>
       </c>
-      <c r="G131" t="s">
-        <v>248</v>
-      </c>
-      <c r="H131" t="s">
-        <v>253</v>
-      </c>
       <c r="I131" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J131" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K131" t="e">
         <v>#N/A</v>
       </c>
       <c r="L131" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="M131" t="e">
         <v>#N/A</v>
       </c>
       <c r="N131" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="O131" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="P131" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="Q131" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="R131" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="S131" t="e">
         <v>#N/A</v>
       </c>
       <c r="T131" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="U131" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
